--- a/DATOS FALTANTES/estudiantes_sin_codigo.xlsx
+++ b/DATOS FALTANTES/estudiantes_sin_codigo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,19 +445,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Laura Sofia Baron Molina</t>
+          <t>Samuel Esteban Henao Jiménez</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
-        <is>
-          <t>Samuel Esteban Henao Jiménez</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
         <is>
           <t>Jerson casas</t>
         </is>
